--- a/Data/Resumen de pozos_2.xlsx
+++ b/Data/Resumen de pozos_2.xlsx
@@ -217,9 +217,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -706,7 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,14 +1047,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
@@ -1067,7 +1063,7 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C1" t="s">
@@ -1102,7 +1098,7 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>26480</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1137,7 +1133,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>27210</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1172,7 +1168,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>30986</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1207,7 +1203,7 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>26754</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1242,7 +1238,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>31259</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1277,7 +1273,7 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>27272</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1312,7 +1308,7 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>31047</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1347,7 +1343,7 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>27180</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1382,7 +1378,7 @@
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>27547</v>
       </c>
       <c r="C10" t="s">
@@ -1417,7 +1413,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>27272</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1452,7 +1448,7 @@
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>27149</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1487,7 +1483,7 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>27768</v>
       </c>
       <c r="C13" t="s">
@@ -1522,7 +1518,7 @@
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>27204</v>
       </c>
       <c r="C14" t="s">
@@ -1557,7 +1553,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>27101</v>
       </c>
       <c r="C15" t="s">
@@ -1592,7 +1588,7 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" t="s">
@@ -1627,7 +1623,7 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>34155</v>
       </c>
       <c r="C17" t="s">
@@ -1662,7 +1658,7 @@
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>26876</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1697,7 +1693,7 @@
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>26968</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1732,7 +1728,7 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>29132</v>
       </c>
       <c r="C20" t="s">
@@ -1767,7 +1763,7 @@
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" t="s">
@@ -1802,7 +1798,7 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>26907</v>
       </c>
       <c r="C22" t="s">
@@ -1837,7 +1833,7 @@
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>26998</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1872,7 +1868,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>31563</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1907,7 +1903,7 @@
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>27333</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1942,7 +1938,7 @@
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>29220</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1977,7 +1973,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>26695</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2012,7 +2008,7 @@
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>27088</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2047,7 +2043,7 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>31016</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2082,7 +2078,7 @@
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>26968</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2117,7 +2113,7 @@
       <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>27241</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2152,7 +2148,7 @@
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>26876</v>
       </c>
       <c r="C32" t="s">
@@ -2187,7 +2183,7 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>27106</v>
       </c>
       <c r="C33" t="s">
@@ -2222,7 +2218,7 @@
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>30853</v>
       </c>
       <c r="C34" t="s">
@@ -2257,7 +2253,7 @@
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>26989</v>
       </c>
       <c r="C35" t="s">
@@ -2292,7 +2288,7 @@
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>39504</v>
       </c>
       <c r="C36" t="s">
@@ -2327,7 +2323,7 @@
       <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>27794</v>
       </c>
       <c r="C37" t="s">
@@ -2362,7 +2358,7 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>27178</v>
       </c>
       <c r="C38" t="s">
@@ -2397,7 +2393,7 @@
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>29694</v>
       </c>
       <c r="C39" t="s">
@@ -2432,7 +2428,7 @@
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>27388</v>
       </c>
       <c r="C40" t="s">
@@ -2467,7 +2463,7 @@
       <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>27194</v>
       </c>
       <c r="C41" t="s">
@@ -2502,7 +2498,7 @@
       <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>31156</v>
       </c>
       <c r="C42" t="s">
@@ -2537,7 +2533,7 @@
       <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>26933</v>
       </c>
       <c r="C43" t="s">
@@ -2572,7 +2568,7 @@
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>30965</v>
       </c>
       <c r="C44" t="s">
@@ -2607,7 +2603,7 @@
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>27255</v>
       </c>
       <c r="C45" t="s">
@@ -2642,7 +2638,7 @@
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>31024</v>
       </c>
       <c r="C46" t="s">
@@ -2677,7 +2673,7 @@
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>27213</v>
       </c>
       <c r="C47" t="s">
@@ -2712,7 +2708,7 @@
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>27260</v>
       </c>
       <c r="C48" t="s">
@@ -2747,7 +2743,7 @@
       <c r="A49" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="C49" t="s">

--- a/Data/Resumen de pozos_2.xlsx
+++ b/Data/Resumen de pozos_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>UTM ESTE</t>
   </si>
@@ -138,9 +138,6 @@
     <t>SITIO GRANDE 83</t>
   </si>
   <si>
-    <t>SITIO GRANDE 95</t>
-  </si>
-  <si>
     <t>SITIO GRANDE 94</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>SITIO GRANDE 811</t>
-  </si>
-  <si>
-    <t>SITIO GRANDE 53</t>
   </si>
   <si>
     <t>SITIO GRANDE 73</t>
@@ -1045,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,10 +1058,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1102,7 +1096,7 @@
         <v>26480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1137,7 +1131,7 @@
         <v>27210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1172,7 +1166,7 @@
         <v>30986</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1207,7 +1201,7 @@
         <v>26754</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1242,7 +1236,7 @@
         <v>31259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1277,7 +1271,7 @@
         <v>27272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1312,7 +1306,7 @@
         <v>31047</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1347,7 +1341,7 @@
         <v>27180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1376,13 +1370,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5">
         <v>27547</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1417,7 +1411,7 @@
         <v>27272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1446,13 +1440,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5">
         <v>27149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1487,7 +1481,7 @@
         <v>27768</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1516,13 +1510,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5">
         <v>27204</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1557,7 +1551,7 @@
         <v>27101</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1586,13 +1580,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1621,13 +1615,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
         <v>34155</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1656,13 +1650,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5">
         <v>26876</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1691,13 +1685,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5">
         <v>26968</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1732,7 +1726,7 @@
         <v>29132</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1761,290 +1755,290 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>26907</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>486889.61</v>
+        <v>485380.73</v>
       </c>
       <c r="F21">
-        <v>1968759.66</v>
+        <v>1967938.28</v>
       </c>
       <c r="G21">
-        <v>17.807372619999999</v>
+        <v>17.799938449999999</v>
       </c>
       <c r="H21">
-        <v>-93.123707920000001</v>
+        <v>-93.137939799999998</v>
       </c>
       <c r="I21">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J21">
-        <v>4472.2</v>
+        <v>4063.3</v>
       </c>
       <c r="K21">
-        <v>4517.2</v>
+        <v>4111.3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5">
-        <v>26907</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
+        <v>26998</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>485380.73</v>
+        <v>486379.84</v>
       </c>
       <c r="F22">
-        <v>1967938.28</v>
+        <v>1967937.7</v>
       </c>
       <c r="G22">
-        <v>17.799938449999999</v>
+        <v>17.79993954</v>
       </c>
       <c r="H22">
-        <v>-93.137939799999998</v>
+        <v>-93.128512709999995</v>
       </c>
       <c r="I22">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
-        <v>4063.3</v>
+        <v>4064.2</v>
       </c>
       <c r="K22">
-        <v>4111.3</v>
+        <v>4108.2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5">
-        <v>26998</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>31563</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>486379.84</v>
+        <v>485800.4</v>
       </c>
       <c r="F23">
-        <v>1967937.7</v>
+        <v>1967586.75</v>
       </c>
       <c r="G23">
-        <v>17.79993954</v>
+        <v>17.79676362</v>
       </c>
       <c r="H23">
-        <v>-93.128512709999995</v>
+        <v>-93.133977659999999</v>
       </c>
       <c r="I23">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J23">
-        <v>4064.2</v>
+        <v>3814.5</v>
       </c>
       <c r="K23">
-        <v>4108.2</v>
+        <v>3966.1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B24" s="5">
-        <v>31563</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>27333</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>485800.4</v>
+        <v>487384.24</v>
       </c>
       <c r="F24">
-        <v>1967586.75</v>
+        <v>1967927.8</v>
       </c>
       <c r="G24">
-        <v>17.79676362</v>
+        <v>17.799856080000001</v>
       </c>
       <c r="H24">
-        <v>-93.133977659999999</v>
+        <v>-93.119035719999999</v>
       </c>
       <c r="I24">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <v>3814.5</v>
+        <v>4250.5</v>
       </c>
       <c r="K24">
-        <v>3966.1</v>
+        <v>4300.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
-        <v>27333</v>
+        <v>29220</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>487384.24</v>
+        <v>485387.07</v>
       </c>
       <c r="F25">
-        <v>1967927.8</v>
+        <v>1967935.64</v>
       </c>
       <c r="G25">
-        <v>17.799856080000001</v>
+        <v>17.79991459</v>
       </c>
       <c r="H25">
-        <v>-93.119035719999999</v>
+        <v>-93.137879979999994</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J25">
-        <v>4250.5</v>
+        <v>4052</v>
       </c>
       <c r="K25">
-        <v>4300.5</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
-        <v>29220</v>
+        <v>26695</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>485387.07</v>
+        <v>484900.42</v>
       </c>
       <c r="F26">
-        <v>1967935.64</v>
+        <v>1968735.92</v>
       </c>
       <c r="G26">
-        <v>17.79991459</v>
+        <v>17.807145240000001</v>
       </c>
       <c r="H26">
-        <v>-93.137879979999994</v>
+        <v>-93.14247752</v>
       </c>
       <c r="I26">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>4052</v>
+        <v>4180.3</v>
       </c>
       <c r="K26">
-        <v>4100</v>
+        <v>4220.3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5">
-        <v>26695</v>
+        <v>27088</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>484900.42</v>
+        <v>485880</v>
       </c>
       <c r="F27">
-        <v>1968735.92</v>
+        <v>1967071.31</v>
       </c>
       <c r="G27">
-        <v>17.807145240000001</v>
+        <v>17.79210492</v>
       </c>
       <c r="H27">
-        <v>-93.14247752</v>
+        <v>-93.133223180000002</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J27">
-        <v>4180.3</v>
+        <v>3909.8</v>
       </c>
       <c r="K27">
-        <v>4220.3</v>
+        <v>3952.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>27088</v>
+        <v>31016</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>485880</v>
+        <v>485792.5</v>
       </c>
       <c r="F28">
-        <v>1967071.31</v>
+        <v>1967581.54</v>
       </c>
       <c r="G28">
-        <v>17.79210492</v>
+        <v>17.796716440000001</v>
       </c>
       <c r="H28">
-        <v>-93.133223180000002</v>
+        <v>-93.134052170000004</v>
       </c>
       <c r="I28">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J28">
-        <v>3909.8</v>
+        <v>3958.1</v>
       </c>
       <c r="K28">
-        <v>3952.8</v>
+        <v>4010.1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5">
-        <v>31016</v>
+        <v>26968</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -2053,33 +2047,33 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>485792.5</v>
+        <v>486889.16</v>
       </c>
       <c r="F29">
-        <v>1967581.54</v>
+        <v>1967051.07</v>
       </c>
       <c r="G29">
-        <v>17.796716440000001</v>
+        <v>17.79192814</v>
       </c>
       <c r="H29">
-        <v>-93.134052170000004</v>
+        <v>-93.123701589999996</v>
       </c>
       <c r="I29">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J29">
-        <v>3958.1</v>
+        <v>3899.6</v>
       </c>
       <c r="K29">
-        <v>4010.1</v>
+        <v>3936.6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B30" s="5">
-        <v>26968</v>
+        <v>27241</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>60</v>
@@ -2088,243 +2082,243 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>486889.16</v>
+        <v>487883.92</v>
       </c>
       <c r="F30">
-        <v>1967051.07</v>
+        <v>1967061.86</v>
       </c>
       <c r="G30">
-        <v>17.79192814</v>
+        <v>17.792031420000001</v>
       </c>
       <c r="H30">
-        <v>-93.123701589999996</v>
+        <v>-93.114315980000001</v>
       </c>
       <c r="I30">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J30">
-        <v>3899.6</v>
+        <v>4245</v>
       </c>
       <c r="K30">
-        <v>3936.6</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B31" s="5">
-        <v>27241</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>26876</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>487883.92</v>
+        <v>484372.62</v>
       </c>
       <c r="F31">
-        <v>1967061.86</v>
+        <v>1969675.45</v>
       </c>
       <c r="G31">
-        <v>17.792031420000001</v>
+        <v>17.815634230000001</v>
       </c>
       <c r="H31">
-        <v>-93.114315980000001</v>
+        <v>-93.1474647</v>
       </c>
       <c r="I31">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J31">
-        <v>4245</v>
+        <v>4951</v>
       </c>
       <c r="K31">
-        <v>4300</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5">
-        <v>26876</v>
+        <v>27106</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>484372.62</v>
+        <v>486379.56</v>
       </c>
       <c r="F32">
-        <v>1969675.45</v>
+        <v>1966205.14</v>
       </c>
       <c r="G32">
-        <v>17.815634230000001</v>
+        <v>17.78427847</v>
       </c>
       <c r="H32">
-        <v>-93.1474647</v>
+        <v>-93.128504219999996</v>
       </c>
       <c r="I32">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J32">
-        <v>4951</v>
+        <v>3933.4</v>
       </c>
       <c r="K32">
-        <v>5000</v>
+        <v>3984.4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5">
-        <v>27106</v>
+        <v>30853</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>486379.56</v>
+        <v>486399.12</v>
       </c>
       <c r="F33">
-        <v>1966205.14</v>
+        <v>1966809.75</v>
       </c>
       <c r="G33">
-        <v>17.78427847</v>
+        <v>17.789743829999999</v>
       </c>
       <c r="H33">
-        <v>-93.128504219999996</v>
+        <v>-93.128323559999998</v>
       </c>
       <c r="I33">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J33">
-        <v>3933.4</v>
+        <v>3831</v>
       </c>
       <c r="K33">
-        <v>3984.4</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5">
-        <v>30853</v>
+        <v>26989</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>486399.12</v>
+        <v>487385.51</v>
       </c>
       <c r="F34">
-        <v>1966809.75</v>
+        <v>1966184.89</v>
       </c>
       <c r="G34">
-        <v>17.789743829999999</v>
+        <v>17.784101419999999</v>
       </c>
       <c r="H34">
-        <v>-93.128323559999998</v>
+        <v>-93.119013289999998</v>
       </c>
       <c r="I34">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J34">
-        <v>3831</v>
+        <v>4034</v>
       </c>
       <c r="K34">
-        <v>3890</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5">
-        <v>26989</v>
+        <v>39504</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>487385.51</v>
+        <v>487321.75</v>
       </c>
       <c r="F35">
-        <v>1966184.89</v>
+        <v>1966394.86</v>
       </c>
       <c r="G35">
-        <v>17.784101419999999</v>
+        <v>17.785999019999998</v>
       </c>
       <c r="H35">
-        <v>-93.119013289999998</v>
+        <v>-93.119616140000005</v>
       </c>
       <c r="I35">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>4034</v>
+        <v>2591</v>
       </c>
       <c r="K35">
-        <v>4076</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B36" s="5">
-        <v>39504</v>
+        <v>27794</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>487321.75</v>
+        <v>485380.78</v>
       </c>
       <c r="F36">
-        <v>1966394.86</v>
+        <v>1966206.34</v>
       </c>
       <c r="G36">
-        <v>17.785999019999998</v>
+        <v>17.784282879999999</v>
       </c>
       <c r="H36">
-        <v>-93.119616140000005</v>
+        <v>-93.13792737</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J36">
-        <v>2591</v>
+        <v>5577.5</v>
       </c>
       <c r="K36">
-        <v>2600</v>
+        <v>5617.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5">
-        <v>27794</v>
+        <v>27178</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -2333,33 +2327,33 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>485380.78</v>
+        <v>488382.91</v>
       </c>
       <c r="F37">
-        <v>1966206.34</v>
+        <v>1966195.64</v>
       </c>
       <c r="G37">
-        <v>17.784282879999999</v>
+        <v>17.784204089999999</v>
       </c>
       <c r="H37">
-        <v>-93.13792737</v>
+        <v>-93.109603239999998</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J37">
-        <v>5577.5</v>
+        <v>4111</v>
       </c>
       <c r="K37">
-        <v>5617.5</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B38" s="5">
-        <v>27178</v>
+        <v>29694</v>
       </c>
       <c r="C38" t="s">
         <v>60</v>
@@ -2368,208 +2362,208 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>488382.91</v>
+        <v>484379.24</v>
       </c>
       <c r="F38">
-        <v>1966195.64</v>
+        <v>1966208.38</v>
       </c>
       <c r="G38">
-        <v>17.784204089999999</v>
+        <v>17.78429444</v>
       </c>
       <c r="H38">
-        <v>-93.109603239999998</v>
+        <v>-93.147376489999999</v>
       </c>
       <c r="I38">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J38">
-        <v>4111</v>
+        <v>4267.8</v>
       </c>
       <c r="K38">
-        <v>4149</v>
+        <v>4316.8</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="5">
-        <v>29694</v>
+        <v>27388</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>484379.24</v>
+        <v>489380.84</v>
       </c>
       <c r="F39">
-        <v>1966208.38</v>
+        <v>1966193.6</v>
       </c>
       <c r="G39">
-        <v>17.78429444</v>
+        <v>17.784190689999999</v>
       </c>
       <c r="H39">
-        <v>-93.147376489999999</v>
+        <v>-93.100188149999994</v>
       </c>
       <c r="I39">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J39">
-        <v>4267.8</v>
+        <v>4424</v>
       </c>
       <c r="K39">
-        <v>4316.8</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>27194</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="5">
-        <v>27388</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>489380.84</v>
+        <v>486884.82</v>
       </c>
       <c r="F40">
-        <v>1966193.6</v>
+        <v>1965334.25</v>
       </c>
       <c r="G40">
-        <v>17.784190689999999</v>
+        <v>17.77640925</v>
       </c>
       <c r="H40">
-        <v>-93.100188149999994</v>
+        <v>-93.123731849999999</v>
       </c>
       <c r="I40">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J40">
-        <v>4424</v>
+        <v>3897</v>
       </c>
       <c r="K40">
-        <v>4450</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B41" s="5">
-        <v>27194</v>
+        <v>31156</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>486884.82</v>
+        <v>487378.14</v>
       </c>
       <c r="F41">
-        <v>1965334.25</v>
+        <v>1966182.53</v>
       </c>
       <c r="G41">
-        <v>17.77640925</v>
+        <v>17.784079999999999</v>
       </c>
       <c r="H41">
-        <v>-93.123731849999999</v>
+        <v>-93.119082809999995</v>
       </c>
       <c r="I41">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J41">
-        <v>3897</v>
+        <v>3987.7</v>
       </c>
       <c r="K41">
-        <v>3934</v>
+        <v>4121.7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5">
-        <v>31156</v>
+        <v>26933</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>487378.14</v>
+        <v>487882.29</v>
       </c>
       <c r="F42">
-        <v>1966182.53</v>
+        <v>1965318.5</v>
       </c>
       <c r="G42">
-        <v>17.784079999999999</v>
+        <v>17.776272609999999</v>
       </c>
       <c r="H42">
-        <v>-93.119082809999995</v>
+        <v>-93.114321360000005</v>
       </c>
       <c r="I42">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J42">
-        <v>3987.7</v>
+        <v>3907</v>
       </c>
       <c r="K42">
-        <v>4121.7</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B43" s="5">
-        <v>26933</v>
+        <v>30965</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>487882.29</v>
+        <v>487746.09</v>
       </c>
       <c r="F43">
-        <v>1965318.5</v>
+        <v>1965763.28</v>
       </c>
       <c r="G43">
-        <v>17.776272609999999</v>
+        <v>17.7802924</v>
       </c>
       <c r="H43">
-        <v>-93.114321360000005</v>
+        <v>-93.115608899999998</v>
       </c>
       <c r="I43">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J43">
-        <v>3907</v>
+        <v>3973.8</v>
       </c>
       <c r="K43">
-        <v>3943</v>
+        <v>4015.8</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5">
-        <v>30965</v>
+        <v>27255</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
@@ -2578,103 +2572,103 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>487746.09</v>
+        <v>485878.46</v>
       </c>
       <c r="F44">
-        <v>1965763.28</v>
+        <v>1965340.92</v>
       </c>
       <c r="G44">
-        <v>17.7802924</v>
+        <v>17.776463360000001</v>
       </c>
       <c r="H44">
-        <v>-93.115608899999998</v>
+        <v>-93.133226100000002</v>
       </c>
       <c r="I44">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J44">
-        <v>3973.8</v>
+        <v>3860</v>
       </c>
       <c r="K44">
-        <v>4015.8</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5">
-        <v>27255</v>
+        <v>31024</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>485878.46</v>
+        <v>485926.88</v>
       </c>
       <c r="F45">
-        <v>1965340.92</v>
+        <v>1965880.84</v>
       </c>
       <c r="G45">
-        <v>17.776463360000001</v>
+        <v>17.78134421</v>
       </c>
       <c r="H45">
-        <v>-93.133226100000002</v>
+        <v>-93.132772900000006</v>
       </c>
       <c r="I45">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J45">
-        <v>3860</v>
+        <v>3965.8</v>
       </c>
       <c r="K45">
-        <v>3890</v>
+        <v>4006.8</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B46" s="5">
-        <v>31024</v>
+        <v>27213</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>485926.88</v>
+        <v>488881.56</v>
       </c>
       <c r="F46">
-        <v>1965880.84</v>
+        <v>1965317.04</v>
       </c>
       <c r="G46">
-        <v>17.78134421</v>
+        <v>17.77626476</v>
       </c>
       <c r="H46">
-        <v>-93.132772900000006</v>
+        <v>-93.104893989999994</v>
       </c>
       <c r="I46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J46">
-        <v>3965.8</v>
+        <v>4174.8</v>
       </c>
       <c r="K46">
-        <v>4006.8</v>
+        <v>4203.8</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5">
-        <v>27213</v>
+        <v>27260</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
@@ -2683,95 +2677,25 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>488881.56</v>
+        <v>484880.47</v>
       </c>
       <c r="F47">
-        <v>1965317.04</v>
+        <v>1965341.45</v>
       </c>
       <c r="G47">
-        <v>17.77626476</v>
+        <v>17.776461489999999</v>
       </c>
       <c r="H47">
-        <v>-93.104893989999994</v>
+        <v>-93.142641400000002</v>
       </c>
       <c r="I47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J47">
-        <v>4174.8</v>
+        <v>4410.8</v>
       </c>
       <c r="K47">
-        <v>4203.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="5">
-        <v>27260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>484880.47</v>
-      </c>
-      <c r="F48">
-        <v>1965341.45</v>
-      </c>
-      <c r="G48">
-        <v>17.776461489999999</v>
-      </c>
-      <c r="H48">
-        <v>-93.142641400000002</v>
-      </c>
-      <c r="I48">
-        <v>41</v>
-      </c>
-      <c r="J48">
-        <v>4410.8</v>
-      </c>
-      <c r="K48">
         <v>4451.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>489882.81</v>
-      </c>
-      <c r="F49">
-        <v>1965336.47</v>
-      </c>
-      <c r="G49">
-        <v>17.776445160000002</v>
-      </c>
-      <c r="H49">
-        <v>-93.095448140000002</v>
-      </c>
-      <c r="I49">
-        <v>25</v>
-      </c>
-      <c r="J49">
-        <v>4975</v>
-      </c>
-      <c r="K49">
-        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Resumen de pozos_2.xlsx
+++ b/Data/Resumen de pozos_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>UTM ESTE</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>SITIO GRANDE 4</t>
-  </si>
-  <si>
-    <t>SITIO GRANDE 2</t>
   </si>
   <si>
     <t>SITIO GRANDE 111</t>
@@ -211,6 +208,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -697,6 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,16 +1040,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
@@ -1057,11 +1058,11 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1092,11 +1093,11 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>26480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1127,11 +1128,11 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>27210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1162,11 +1163,11 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>30986</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1197,11 +1198,11 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>26754</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1232,11 +1233,11 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>31259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1267,11 +1268,11 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>27272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1302,11 +1303,11 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>31047</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1337,11 +1338,11 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>27180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1370,13 +1371,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
         <v>27547</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1407,11 +1408,11 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>27272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1440,13 +1441,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7">
         <v>27149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1477,11 +1478,11 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>27768</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1510,13 +1511,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7">
         <v>27204</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1547,11 +1548,11 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>27101</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1580,535 +1581,535 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B16" s="7">
+        <v>34155</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>483882.94</v>
+        <v>483856</v>
       </c>
       <c r="F16">
-        <v>1968805.66</v>
+        <v>1967084</v>
       </c>
       <c r="G16">
-        <v>17.80776844</v>
+        <v>17.79220566</v>
       </c>
       <c r="H16">
-        <v>-93.152078840000001</v>
+        <v>-93.152319790000007</v>
       </c>
       <c r="I16">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J16">
-        <v>4364.6000000000004</v>
+        <v>4678</v>
       </c>
       <c r="K16">
-        <v>4417.6000000000004</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="5">
-        <v>34155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="7">
+        <v>26876</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>483856</v>
+        <v>484880.18</v>
       </c>
       <c r="F17">
-        <v>1967084</v>
+        <v>1967071.99</v>
       </c>
       <c r="G17">
-        <v>17.79220566</v>
+        <v>17.792104389999999</v>
       </c>
       <c r="H17">
-        <v>-93.152319790000007</v>
+        <v>-93.142656529999996</v>
       </c>
       <c r="I17">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J17">
-        <v>4678</v>
+        <v>3982</v>
       </c>
       <c r="K17">
-        <v>4723</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="5">
-        <v>26876</v>
+        <v>43</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26968</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>484880.18</v>
+        <v>485879.69</v>
       </c>
       <c r="F18">
-        <v>1967071.99</v>
+        <v>1968791.56</v>
       </c>
       <c r="G18">
-        <v>17.792104389999999</v>
+        <v>17.807654729999999</v>
       </c>
       <c r="H18">
-        <v>-93.142656529999996</v>
+        <v>-93.133237620000003</v>
       </c>
       <c r="I18">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J18">
-        <v>3982</v>
+        <v>4465.7</v>
       </c>
       <c r="K18">
-        <v>4035</v>
+        <v>4512.7</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="5">
-        <v>26968</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>29132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>485879.69</v>
+        <v>485900</v>
       </c>
       <c r="F19">
         <v>1968791.56</v>
       </c>
       <c r="G19">
-        <v>17.807654729999999</v>
+        <v>17.807654840000001</v>
       </c>
       <c r="H19">
-        <v>-93.133237620000003</v>
+        <v>-93.133045980000006</v>
       </c>
       <c r="I19">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19">
-        <v>4465.7</v>
+        <v>4460</v>
       </c>
       <c r="K19">
-        <v>4512.7</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
-        <v>29132</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="7">
+        <v>26907</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>485900</v>
+        <v>485380.73</v>
       </c>
       <c r="F20">
-        <v>1968791.56</v>
+        <v>1967938.28</v>
       </c>
       <c r="G20">
-        <v>17.807654840000001</v>
+        <v>17.799938449999999</v>
       </c>
       <c r="H20">
-        <v>-93.133045980000006</v>
+        <v>-93.137939799999998</v>
       </c>
       <c r="I20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J20">
-        <v>4460</v>
+        <v>4063.3</v>
       </c>
       <c r="K20">
-        <v>4505</v>
+        <v>4111.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5">
-        <v>26907</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="7">
+        <v>26998</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>485380.73</v>
+        <v>486379.84</v>
       </c>
       <c r="F21">
-        <v>1967938.28</v>
+        <v>1967937.7</v>
       </c>
       <c r="G21">
-        <v>17.799938449999999</v>
+        <v>17.79993954</v>
       </c>
       <c r="H21">
-        <v>-93.137939799999998</v>
+        <v>-93.128512709999995</v>
       </c>
       <c r="I21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J21">
-        <v>4063.3</v>
+        <v>4064.2</v>
       </c>
       <c r="K21">
-        <v>4111.3</v>
+        <v>4108.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5">
-        <v>26998</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
+        <v>31563</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>486379.84</v>
+        <v>485800.4</v>
       </c>
       <c r="F22">
-        <v>1967937.7</v>
+        <v>1967586.75</v>
       </c>
       <c r="G22">
-        <v>17.79993954</v>
+        <v>17.79676362</v>
       </c>
       <c r="H22">
-        <v>-93.128512709999995</v>
+        <v>-93.133977659999999</v>
       </c>
       <c r="I22">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J22">
-        <v>4064.2</v>
+        <v>3814.5</v>
       </c>
       <c r="K22">
-        <v>4108.2</v>
+        <v>3966.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5">
-        <v>31563</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="7">
+        <v>27333</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>485800.4</v>
+        <v>487384.24</v>
       </c>
       <c r="F23">
-        <v>1967586.75</v>
+        <v>1967927.8</v>
       </c>
       <c r="G23">
-        <v>17.79676362</v>
+        <v>17.799856080000001</v>
       </c>
       <c r="H23">
-        <v>-93.133977659999999</v>
+        <v>-93.119035719999999</v>
       </c>
       <c r="I23">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>3814.5</v>
+        <v>4250.5</v>
       </c>
       <c r="K23">
-        <v>3966.1</v>
+        <v>4300.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5">
-        <v>27333</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="7">
+        <v>29220</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>487384.24</v>
+        <v>485387.07</v>
       </c>
       <c r="F24">
-        <v>1967927.8</v>
+        <v>1967935.64</v>
       </c>
       <c r="G24">
-        <v>17.799856080000001</v>
+        <v>17.79991459</v>
       </c>
       <c r="H24">
-        <v>-93.119035719999999</v>
+        <v>-93.137879979999994</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>4250.5</v>
+        <v>4052</v>
       </c>
       <c r="K24">
-        <v>4300.5</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5">
-        <v>29220</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="7">
+        <v>26695</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>485387.07</v>
+        <v>484900.42</v>
       </c>
       <c r="F25">
-        <v>1967935.64</v>
+        <v>1968735.92</v>
       </c>
       <c r="G25">
-        <v>17.79991459</v>
+        <v>17.807145240000001</v>
       </c>
       <c r="H25">
-        <v>-93.137879979999994</v>
+        <v>-93.14247752</v>
       </c>
       <c r="I25">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>4052</v>
+        <v>4180.3</v>
       </c>
       <c r="K25">
-        <v>4100</v>
+        <v>4220.3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
-        <v>26695</v>
+        <v>15</v>
+      </c>
+      <c r="B26" s="7">
+        <v>27088</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>484900.42</v>
+        <v>485880</v>
       </c>
       <c r="F26">
-        <v>1968735.92</v>
+        <v>1967071.31</v>
       </c>
       <c r="G26">
-        <v>17.807145240000001</v>
+        <v>17.79210492</v>
       </c>
       <c r="H26">
-        <v>-93.14247752</v>
+        <v>-93.133223180000002</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>4180.3</v>
+        <v>3909.8</v>
       </c>
       <c r="K26">
-        <v>4220.3</v>
+        <v>3952.8</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5">
-        <v>27088</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="7">
+        <v>31016</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>485880</v>
+        <v>485792.5</v>
       </c>
       <c r="F27">
-        <v>1967071.31</v>
+        <v>1967581.54</v>
       </c>
       <c r="G27">
-        <v>17.79210492</v>
+        <v>17.796716440000001</v>
       </c>
       <c r="H27">
-        <v>-93.133223180000002</v>
+        <v>-93.134052170000004</v>
       </c>
       <c r="I27">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J27">
-        <v>3909.8</v>
+        <v>3958.1</v>
       </c>
       <c r="K27">
-        <v>3952.8</v>
+        <v>4010.1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>31016</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="7">
+        <v>26968</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>485792.5</v>
+        <v>486889.16</v>
       </c>
       <c r="F28">
-        <v>1967581.54</v>
+        <v>1967051.07</v>
       </c>
       <c r="G28">
-        <v>17.796716440000001</v>
+        <v>17.79192814</v>
       </c>
       <c r="H28">
-        <v>-93.134052170000004</v>
+        <v>-93.123701589999996</v>
       </c>
       <c r="I28">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J28">
-        <v>3958.1</v>
+        <v>3899.6</v>
       </c>
       <c r="K28">
-        <v>4010.1</v>
+        <v>3936.6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5">
-        <v>26968</v>
+        <v>52</v>
+      </c>
+      <c r="B29" s="7">
+        <v>27241</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>486889.16</v>
+        <v>487883.92</v>
       </c>
       <c r="F29">
-        <v>1967051.07</v>
+        <v>1967061.86</v>
       </c>
       <c r="G29">
-        <v>17.79192814</v>
+        <v>17.792031420000001</v>
       </c>
       <c r="H29">
-        <v>-93.123701589999996</v>
+        <v>-93.114315980000001</v>
       </c>
       <c r="I29">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J29">
-        <v>3899.6</v>
+        <v>4245</v>
       </c>
       <c r="K29">
-        <v>3936.6</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="5">
-        <v>27241</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="7">
+        <v>26876</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>487883.92</v>
+        <v>484372.62</v>
       </c>
       <c r="F30">
-        <v>1967061.86</v>
+        <v>1969675.45</v>
       </c>
       <c r="G30">
-        <v>17.792031420000001</v>
+        <v>17.815634230000001</v>
       </c>
       <c r="H30">
-        <v>-93.114315980000001</v>
+        <v>-93.1474647</v>
       </c>
       <c r="I30">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J30">
-        <v>4245</v>
+        <v>4951</v>
       </c>
       <c r="K30">
-        <v>4300</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="5">
-        <v>26876</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="7">
+        <v>27106</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2117,584 +2118,549 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>484372.62</v>
+        <v>486379.56</v>
       </c>
       <c r="F31">
-        <v>1969675.45</v>
+        <v>1966205.14</v>
       </c>
       <c r="G31">
-        <v>17.815634230000001</v>
+        <v>17.78427847</v>
       </c>
       <c r="H31">
-        <v>-93.1474647</v>
+        <v>-93.128504219999996</v>
       </c>
       <c r="I31">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J31">
-        <v>4951</v>
+        <v>3933.4</v>
       </c>
       <c r="K31">
-        <v>5000</v>
+        <v>3984.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="5">
-        <v>27106</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
+        <v>30853</v>
       </c>
       <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>486399.12</v>
+      </c>
+      <c r="F32">
+        <v>1966809.75</v>
+      </c>
+      <c r="G32">
+        <v>17.789743829999999</v>
+      </c>
+      <c r="H32">
+        <v>-93.128323559999998</v>
+      </c>
+      <c r="I32">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>486379.56</v>
-      </c>
-      <c r="F32">
-        <v>1966205.14</v>
-      </c>
-      <c r="G32">
-        <v>17.78427847</v>
-      </c>
-      <c r="H32">
-        <v>-93.128504219999996</v>
-      </c>
-      <c r="I32">
-        <v>51</v>
-      </c>
       <c r="J32">
-        <v>3933.4</v>
+        <v>3831</v>
       </c>
       <c r="K32">
-        <v>3984.4</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5">
-        <v>30853</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26989</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>486399.12</v>
+        <v>487385.51</v>
       </c>
       <c r="F33">
-        <v>1966809.75</v>
+        <v>1966184.89</v>
       </c>
       <c r="G33">
-        <v>17.789743829999999</v>
+        <v>17.784101419999999</v>
       </c>
       <c r="H33">
-        <v>-93.128323559999998</v>
+        <v>-93.119013289999998</v>
       </c>
       <c r="I33">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J33">
-        <v>3831</v>
+        <v>4034</v>
       </c>
       <c r="K33">
-        <v>3890</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="5">
-        <v>26989</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="7">
+        <v>39504</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>487385.51</v>
+        <v>487321.75</v>
       </c>
       <c r="F34">
-        <v>1966184.89</v>
+        <v>1966394.86</v>
       </c>
       <c r="G34">
-        <v>17.784101419999999</v>
+        <v>17.785999019999998</v>
       </c>
       <c r="H34">
-        <v>-93.119013289999998</v>
+        <v>-93.119616140000005</v>
       </c>
       <c r="I34">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>4034</v>
+        <v>2591</v>
       </c>
       <c r="K34">
-        <v>4076</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5">
-        <v>39504</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="7">
+        <v>27794</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>487321.75</v>
+        <v>485380.78</v>
       </c>
       <c r="F35">
-        <v>1966394.86</v>
+        <v>1966206.34</v>
       </c>
       <c r="G35">
-        <v>17.785999019999998</v>
+        <v>17.784282879999999</v>
       </c>
       <c r="H35">
-        <v>-93.119616140000005</v>
+        <v>-93.13792737</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>2591</v>
+        <v>5577.5</v>
       </c>
       <c r="K35">
-        <v>2600</v>
+        <v>5617.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="5">
-        <v>27794</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="7">
+        <v>27178</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>485380.78</v>
+        <v>488382.91</v>
       </c>
       <c r="F36">
-        <v>1966206.34</v>
+        <v>1966195.64</v>
       </c>
       <c r="G36">
-        <v>17.784282879999999</v>
+        <v>17.784204089999999</v>
       </c>
       <c r="H36">
-        <v>-93.13792737</v>
+        <v>-93.109603239999998</v>
       </c>
       <c r="I36">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>5577.5</v>
+        <v>4111</v>
       </c>
       <c r="K36">
-        <v>5617.5</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5">
-        <v>27178</v>
+        <v>53</v>
+      </c>
+      <c r="B37" s="7">
+        <v>29694</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>488382.91</v>
+        <v>484379.24</v>
       </c>
       <c r="F37">
-        <v>1966195.64</v>
+        <v>1966208.38</v>
       </c>
       <c r="G37">
-        <v>17.784204089999999</v>
+        <v>17.78429444</v>
       </c>
       <c r="H37">
-        <v>-93.109603239999998</v>
+        <v>-93.147376489999999</v>
       </c>
       <c r="I37">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J37">
-        <v>4111</v>
+        <v>4267.8</v>
       </c>
       <c r="K37">
-        <v>4149</v>
+        <v>4316.8</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="5">
-        <v>29694</v>
+      <c r="B38" s="7">
+        <v>27388</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>484379.24</v>
+        <v>489380.84</v>
       </c>
       <c r="F38">
-        <v>1966208.38</v>
+        <v>1966193.6</v>
       </c>
       <c r="G38">
-        <v>17.78429444</v>
+        <v>17.784190689999999</v>
       </c>
       <c r="H38">
-        <v>-93.147376489999999</v>
+        <v>-93.100188149999994</v>
       </c>
       <c r="I38">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J38">
-        <v>4267.8</v>
+        <v>4424</v>
       </c>
       <c r="K38">
-        <v>4316.8</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="5">
-        <v>27388</v>
+        <v>10</v>
+      </c>
+      <c r="B39" s="7">
+        <v>27194</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>489380.84</v>
+        <v>486884.82</v>
       </c>
       <c r="F39">
-        <v>1966193.6</v>
+        <v>1965334.25</v>
       </c>
       <c r="G39">
-        <v>17.784190689999999</v>
+        <v>17.77640925</v>
       </c>
       <c r="H39">
-        <v>-93.100188149999994</v>
+        <v>-93.123731849999999</v>
       </c>
       <c r="I39">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J39">
-        <v>4424</v>
+        <v>3897</v>
       </c>
       <c r="K39">
-        <v>4450</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="5">
-        <v>27194</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="7">
+        <v>31156</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>486884.82</v>
+        <v>487378.14</v>
       </c>
       <c r="F40">
-        <v>1965334.25</v>
+        <v>1966182.53</v>
       </c>
       <c r="G40">
-        <v>17.77640925</v>
+        <v>17.784079999999999</v>
       </c>
       <c r="H40">
-        <v>-93.123731849999999</v>
+        <v>-93.119082809999995</v>
       </c>
       <c r="I40">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J40">
-        <v>3897</v>
+        <v>3987.7</v>
       </c>
       <c r="K40">
-        <v>3934</v>
+        <v>4121.7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="5">
-        <v>31156</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="7">
+        <v>26933</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>487378.14</v>
+        <v>487882.29</v>
       </c>
       <c r="F41">
-        <v>1966182.53</v>
+        <v>1965318.5</v>
       </c>
       <c r="G41">
-        <v>17.784079999999999</v>
+        <v>17.776272609999999</v>
       </c>
       <c r="H41">
-        <v>-93.119082809999995</v>
+        <v>-93.114321360000005</v>
       </c>
       <c r="I41">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J41">
-        <v>3987.7</v>
+        <v>3907</v>
       </c>
       <c r="K41">
-        <v>4121.7</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="5">
-        <v>26933</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="7">
+        <v>30965</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>487882.29</v>
+        <v>487746.09</v>
       </c>
       <c r="F42">
-        <v>1965318.5</v>
+        <v>1965763.28</v>
       </c>
       <c r="G42">
-        <v>17.776272609999999</v>
+        <v>17.7802924</v>
       </c>
       <c r="H42">
-        <v>-93.114321360000005</v>
+        <v>-93.115608899999998</v>
       </c>
       <c r="I42">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J42">
-        <v>3907</v>
+        <v>3973.8</v>
       </c>
       <c r="K42">
-        <v>3943</v>
+        <v>4015.8</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="5">
-        <v>30965</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="7">
+        <v>27255</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>487746.09</v>
+        <v>485878.46</v>
       </c>
       <c r="F43">
-        <v>1965763.28</v>
+        <v>1965340.92</v>
       </c>
       <c r="G43">
-        <v>17.7802924</v>
+        <v>17.776463360000001</v>
       </c>
       <c r="H43">
-        <v>-93.115608899999998</v>
+        <v>-93.133226100000002</v>
       </c>
       <c r="I43">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J43">
-        <v>3973.8</v>
+        <v>3860</v>
       </c>
       <c r="K43">
-        <v>4015.8</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="5">
-        <v>27255</v>
+        <v>34</v>
+      </c>
+      <c r="B44" s="7">
+        <v>31024</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>485878.46</v>
+        <v>485926.88</v>
       </c>
       <c r="F44">
-        <v>1965340.92</v>
+        <v>1965880.84</v>
       </c>
       <c r="G44">
-        <v>17.776463360000001</v>
+        <v>17.78134421</v>
       </c>
       <c r="H44">
-        <v>-93.133226100000002</v>
+        <v>-93.132772900000006</v>
       </c>
       <c r="I44">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J44">
-        <v>3860</v>
+        <v>3965.8</v>
       </c>
       <c r="K44">
-        <v>3890</v>
+        <v>4006.8</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="5">
-        <v>31024</v>
+        <v>25</v>
+      </c>
+      <c r="B45" s="7">
+        <v>27213</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>485926.88</v>
+        <v>488881.56</v>
       </c>
       <c r="F45">
-        <v>1965880.84</v>
+        <v>1965317.04</v>
       </c>
       <c r="G45">
-        <v>17.78134421</v>
+        <v>17.77626476</v>
       </c>
       <c r="H45">
-        <v>-93.132772900000006</v>
+        <v>-93.104893989999994</v>
       </c>
       <c r="I45">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J45">
-        <v>3965.8</v>
+        <v>4174.8</v>
       </c>
       <c r="K45">
-        <v>4006.8</v>
+        <v>4203.8</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="5">
-        <v>27213</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="7">
+        <v>27260</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>488881.56</v>
+        <v>484880.47</v>
       </c>
       <c r="F46">
-        <v>1965317.04</v>
+        <v>1965341.45</v>
       </c>
       <c r="G46">
-        <v>17.77626476</v>
+        <v>17.776461489999999</v>
       </c>
       <c r="H46">
-        <v>-93.104893989999994</v>
+        <v>-93.142641400000002</v>
       </c>
       <c r="I46">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J46">
-        <v>4174.8</v>
+        <v>4410.8</v>
       </c>
       <c r="K46">
-        <v>4203.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="5">
-        <v>27260</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>484880.47</v>
-      </c>
-      <c r="F47">
-        <v>1965341.45</v>
-      </c>
-      <c r="G47">
-        <v>17.776461489999999</v>
-      </c>
-      <c r="H47">
-        <v>-93.142641400000002</v>
-      </c>
-      <c r="I47">
-        <v>41</v>
-      </c>
-      <c r="J47">
-        <v>4410.8</v>
-      </c>
-      <c r="K47">
         <v>4451.8</v>
       </c>
     </row>
